--- a/data/2011-12.xlsx
+++ b/data/2011-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacosun/Downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA45D2-4C43-E948-BBC1-05C7FCF7E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFAC920-FF72-8945-8148-1A439A08F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="3360" windowWidth="30020" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:AQ479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B479"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
